--- a/Wepot開發進度表.xlsx
+++ b/Wepot開發進度表.xlsx
@@ -11,14 +11,14 @@
     <sheet name="下次工作事項" sheetId="9" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">phase1_進度表!$A$1:$D$17</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">phase1_進度表!$A$1:$D$20</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
   <si>
     <t>功能</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -112,22 +112,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>首頁、登錄、註冊、關於我們</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>關於我們</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>解說團隊、成員、聯絡方式、公司位置</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>目前顯示團隊名稱即可</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>所有版面的Toggle menu移到右上角</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -136,14 +124,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>輸入框：帳號、密碼</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>驗證功能(Web)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>顯示供給方和需求方各自的不同，並解說擔任不同的角色會有那些實質(社會面)的幫助，且又能對系統造成何種(平台面)幫助</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -176,10 +156,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>清單的欄位資料不完整，未加入人力需求的相關欄位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>顯示已供給的清單內容，並可建立新的供給清單</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -213,14 +189,6 @@
   </si>
   <si>
     <t>實際未完成功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>實際功能運作(web)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加人力資源的相關欄位</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -238,6 +206,118 @@
   <si>
     <t>第二次討論，
 可供查詢所有供給者的資料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>解說團隊、成員、聯絡方式、公司位置</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>輸入框：帳號、密碼</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>驗證功能(Web)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>註冊畫面</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>清單的欄位資料不完整，未加入人力需求的相關欄位</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有供給品清單</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>列出所有的供給品，不分供給的，採物品名稱分組，可針對每筆資料提出需求，提出需求後可輸入數量</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二次討論</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>實際功能運作(web)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力資源倉庫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>清單的欄位資料不完整</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>以月曆的方式呈現，可點選日期</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力需求頁面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>以月曆的方式呈現，可點選日期，並且可勾選特定日期，當勾選的日期有提供者異動時會收到通知，點選日期後出現清單可針對不同的提供者，提出人力需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已找到月曆元件</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>已找到月曆元件，畫面為暫時該元件基礎樣式</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>點擊名稱後popup視窗，並說明個人故事</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>首頁、登錄/註冊、關於我們</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃底為完成模組</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>綠底為二次討論項目或非本次須完成項目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>紅字為更新的項目</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>增加人力資源的相關欄位</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="標楷體"/>
+        <family val="4"/>
+        <charset val="136"/>
+      </rPr>
+      <t>增加人力資源相關頁面</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>畫面</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -245,7 +325,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -304,16 +384,43 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="標楷體"/>
+      <family val="4"/>
+      <charset val="136"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -336,122 +443,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -462,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -482,55 +473,73 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -836,10 +845,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G20"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -850,19 +859,19 @@
     <col min="4" max="4" width="6.625" style="3" customWidth="1"/>
     <col min="5" max="5" width="26.125" style="3" customWidth="1"/>
     <col min="6" max="6" width="32.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="19.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.375" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="45.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+    <row r="1" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="19" t="s">
+      <c r="B1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -871,326 +880,399 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="D2" s="20">
+      <c r="D2" s="7">
         <v>0.2</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G2" s="5"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="10"/>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="14"/>
+      <c r="B3" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="D3" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="14"/>
+      <c r="B4" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="D3" s="20">
-        <v>0.9</v>
-      </c>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="5"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>25</v>
+      <c r="C4" s="19" t="s">
+        <v>47</v>
       </c>
       <c r="D4" s="20">
         <v>0.95</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="22" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="14"/>
+      <c r="B5" s="22" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="23">
+        <v>0.95</v>
+      </c>
+      <c r="E5" s="21"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B6" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C6" s="24" t="s">
         <v>26</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="5"/>
-    </row>
-    <row r="5" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12"/>
-      <c r="B5" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="20">
+      <c r="D6" s="23">
         <v>0.95</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6" t="s">
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="14"/>
+      <c r="B7" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="20">
-        <v>0.7</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="C7" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D7" s="20">
+      <c r="D7" s="7">
         <v>0.3</v>
       </c>
       <c r="E7" s="6"/>
       <c r="F7" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G7" s="5"/>
     </row>
-    <row r="8" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="12"/>
-      <c r="B8" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="D8" s="20">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7">
         <v>0.3</v>
       </c>
       <c r="E8" s="6"/>
       <c r="F8" s="6" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="20">
+      <c r="C9" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="23">
         <v>0.95</v>
       </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G9" s="5"/>
-    </row>
-    <row r="10" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="16"/>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="20">
+      <c r="C10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="7">
         <v>0.4</v>
       </c>
       <c r="E10" s="6"/>
       <c r="F10" s="6" t="s">
-        <v>39</v>
+        <v>57</v>
       </c>
       <c r="G10" s="5"/>
     </row>
-    <row r="11" spans="1:7" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="17"/>
-      <c r="B11" s="13" t="s">
+    <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A11" s="16"/>
+      <c r="B11" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="21" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="5"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="E11" s="26" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="26"/>
+      <c r="G11" s="25"/>
+    </row>
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="B12" s="9" t="s">
+      <c r="B13" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="D12" s="20">
+      <c r="C13" s="21" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="23">
         <v>0.95</v>
       </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11" t="s">
+      <c r="E13" s="21"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C13" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="D13" s="20">
-        <v>0.4</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="G13" s="5"/>
-    </row>
-    <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="D14" s="20">
+      <c r="C14" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="7">
         <v>0.4</v>
       </c>
       <c r="E14" s="6"/>
       <c r="F14" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="5"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="7">
+        <v>0</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G16" s="5"/>
+    </row>
+    <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="25" t="s">
+        <v>52</v>
+      </c>
+      <c r="C17" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="D17" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="F17" s="26"/>
+      <c r="G17" s="25"/>
+    </row>
+    <row r="18" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="14"/>
+      <c r="B18" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0</v>
+      </c>
+      <c r="E18" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="G18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="26"/>
+      <c r="G19" s="25"/>
+    </row>
+    <row r="20" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="26" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="26"/>
+      <c r="G20" s="25"/>
+    </row>
+    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="26" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="26"/>
+      <c r="G21" s="25"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="12"/>
-      <c r="B15" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="20">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="7"/>
-      <c r="D16" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="6"/>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="7"/>
-      <c r="D17" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="6" t="s">
-        <v>43</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="7"/>
-      <c r="D18" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="E18" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="6"/>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="22">
+      <c r="D22" s="29">
         <v>0.95</v>
       </c>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D20" s="23"/>
+      <c r="E22" s="21"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="22" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="8"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C25" s="2"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>67</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A9:A11"/>
     <mergeCell ref="A2:A5"/>
     <mergeCell ref="A6:A8"/>
-    <mergeCell ref="A16:A19"/>
-    <mergeCell ref="A12:A15"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A9:A12"/>
+    <mergeCell ref="A13:A18"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1203,31 +1285,32 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="47.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>27</v>
+      <c r="A1" s="9" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Wepot開發進度表.xlsx
+++ b/Wepot開發進度表.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
   <si>
     <t>功能</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -68,10 +68,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>供給清單</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>P</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -189,14 +185,6 @@
   </si>
   <si>
     <t>實際未完成功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求清單紀錄</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>可針對曾經供給過的對象進行評分</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -225,10 +213,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>清單的欄位資料不完整，未加入人力需求的相關欄位</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>所有供給品清單</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -242,34 +226,6 @@
   </si>
   <si>
     <t>實際功能運作(web)</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人力資源倉庫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>清單的欄位資料不完整</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>以月曆的方式呈現，可點選日期</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人力需求頁面</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>以月曆的方式呈現，可點選日期，並且可勾選特定日期，當勾選的日期有提供者異動時會收到通知，點選日期後出現清單可針對不同的提供者，提出人力需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已找到月曆元件</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>已找到月曆元件，畫面為暫時該元件基礎樣式</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -317,7 +273,51 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>畫面</t>
+    <t>以月曆的方式呈現，點選日期後輸入供應人力，按下建立後即可針對該日期提供人力，該日期底色會改變</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他細部功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>清單的欄位資料不完整，"建立"按鈕的實現</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>清單的欄位資料不完整，"提出需求"按鈕的實現</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>以月曆的方式呈現，可點選日期，並且可勾選特定日期，當勾選的日期有提供者異動時會收到通知，點選日期後出現清單可針對不同的提供者，提出人力需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"提出人力需求"按鈕的實現</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可針對曾經供給過的對象進行評分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求紀錄/評分供給者</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分模組的實現</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供給清單</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力資源倉庫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力需求頁面</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -453,7 +453,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -482,65 +482,53 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -848,7 +836,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -864,14 +852,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>1</v>
@@ -880,371 +868,367 @@
         <v>2</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>42</v>
-      </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="22" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="7">
         <v>0.2</v>
       </c>
       <c r="E2" s="6"/>
       <c r="F2" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="5"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="22"/>
+      <c r="B3" s="14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+      <c r="B4" s="14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="22"/>
+      <c r="B5" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="13" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+      <c r="B7" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="14"/>
-      <c r="B3" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="21" t="s">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+      <c r="B8" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="23"/>
+      <c r="B10" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A11" s="23"/>
+      <c r="B11" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="18"/>
+      <c r="D11" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="18" t="s">
+        <v>43</v>
+      </c>
+      <c r="F11" s="18"/>
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A12" s="23"/>
+      <c r="B12" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" s="24">
+        <v>0.95</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="15">
+        <v>0.95</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+      <c r="B14" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+      <c r="B15" s="14" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+      <c r="B16" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="D3" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="14"/>
-      <c r="B4" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="D4" s="20">
-        <v>0.95</v>
-      </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22" t="s">
+      <c r="D16" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="14" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+      <c r="B17" s="17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="18"/>
+      <c r="G17" s="17"/>
+    </row>
+    <row r="18" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+      <c r="B18" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="12">
+        <v>0.95</v>
+      </c>
+      <c r="E18" s="11"/>
+      <c r="F18" s="13"/>
+      <c r="G18" s="14" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="14"/>
-      <c r="B5" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>48</v>
-      </c>
-      <c r="D5" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="E5" s="21"/>
-      <c r="F5" s="21"/>
-      <c r="G5" s="21" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B6" s="22" t="s">
-        <v>50</v>
-      </c>
-      <c r="C6" s="24" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="14"/>
-      <c r="B7" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D7" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="5"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="D8" s="7">
-        <v>0.3</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="5"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D9" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="16"/>
-      <c r="B10" s="5" t="s">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="18"/>
+      <c r="D19" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="G10" s="5"/>
-    </row>
-    <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="16"/>
-      <c r="B11" s="25" t="s">
+      <c r="E19" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="26"/>
-      <c r="D11" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E11" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="26"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A12" s="16"/>
-      <c r="B12" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="10">
-        <v>0.2</v>
-      </c>
-      <c r="E12" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G12" s="5"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13" s="23">
-        <v>0.95</v>
-      </c>
-      <c r="E13" s="21"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C14" s="6" t="s">
+      <c r="F19" s="18"/>
+      <c r="G19" s="17"/>
+    </row>
+    <row r="20" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
+      <c r="B20" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="18"/>
+      <c r="D20" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6" t="s">
+      <c r="F20" s="18"/>
+      <c r="G20" s="17"/>
+    </row>
+    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A21" s="22"/>
+      <c r="B21" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="18"/>
+      <c r="D21" s="19" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="18"/>
+      <c r="G21" s="17"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="22"/>
+      <c r="B22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="21">
+        <v>0.95</v>
+      </c>
+      <c r="E22" s="13"/>
+      <c r="F22" s="13"/>
+      <c r="G22" s="14" t="s">
         <v>51</v>
-      </c>
-      <c r="G14" s="5"/>
-    </row>
-    <row r="15" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>35</v>
-      </c>
-      <c r="D15" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="G15" s="5"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="C16" s="17" t="s">
-        <v>44</v>
-      </c>
-      <c r="D16" s="7">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="C17" s="26" t="s">
-        <v>53</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="26"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0</v>
-      </c>
-      <c r="E18" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>16</v>
-      </c>
-      <c r="C19" s="26"/>
-      <c r="D19" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E19" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="26"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="26"/>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="14"/>
-      <c r="B21" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="C21" s="26"/>
-      <c r="D21" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="F21" s="26"/>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="14"/>
-      <c r="B22" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="D22" s="29">
-        <v>0.95</v>
-      </c>
-      <c r="E22" s="21"/>
-      <c r="F22" s="21"/>
-      <c r="G22" s="22" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1252,18 +1236,18 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>66</v>
+        <v>55</v>
       </c>
       <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1285,7 +1269,7 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1295,17 +1279,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/Wepot開發進度表.xlsx
+++ b/Wepot開發進度表.xlsx
@@ -7,18 +7,20 @@
     <workbookView xWindow="-15" yWindow="6720" windowWidth="28830" windowHeight="6495"/>
   </bookViews>
   <sheets>
-    <sheet name="phase1_進度表" sheetId="8" r:id="rId1"/>
-    <sheet name="下次工作事項" sheetId="9" r:id="rId2"/>
+    <sheet name="phase2_進度表" sheetId="10" r:id="rId1"/>
+    <sheet name="phase1_進度表" sheetId="8" r:id="rId2"/>
+    <sheet name="下次工作事項" sheetId="9" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">phase1_進度表!$A$1:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">phase1_進度表!$A$1:$D$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">phase2_進度表!$A$1:$D$20</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="79">
   <si>
     <t>功能</t>
     <phoneticPr fontId="4" type="noConversion"/>
@@ -112,10 +114,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>所有版面的Toggle menu移到右上角</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>註冊</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -185,10 +183,6 @@
   </si>
   <si>
     <t>實際未完成功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求清單紀錄的畫面和評分功能</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -249,75 +243,114 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>以月曆的方式呈現，點選日期後輸入供應人力，按下建立後即可針對該日期提供人力，該日期底色會改變</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他細部功能</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>清單的欄位資料不完整，"建立"按鈕的實現</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>清單的欄位資料不完整，"提出需求"按鈕的實現</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>以月曆的方式呈現，可點選日期，並且可勾選特定日期，當勾選的日期有提供者異動時會收到通知，點選日期後出現清單可針對不同的提供者，提出人力需求</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>"提出人力需求"按鈕的實現</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>可針對曾經供給過的對象進行評分</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求紀錄/評分供給者</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>評分模組的實現</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>供給清單</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力資源倉庫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力需求頁面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>內容可在更改，英文翻譯</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>清單的欄位資料不完整，"建立"按鈕的實現</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>清單的欄位資料不完整，"提出需求"按鈕的實現</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡易表現需填寫那些基本資料</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>緊急程度顏色區分方式未決定</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>不確定每個欄位的值的顯示方式，是否符合討論</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>人力資源倉庫</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>以月曆的方式呈現，點選日期後輸入供應人力，按下建立後即可針對該日期提供人力，該日期底色會改變</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">以月曆的方式呈現，可點選日期，並且可勾選特定日期，當勾選的日期有提供者異動時會收到通知，點選日期後出現清單可針對不同的提供者，提出人力需求。
+</t>
+    </r>
     <r>
       <rPr>
-        <strike/>
         <sz val="12"/>
-        <color theme="1"/>
+        <color rgb="FFFF0000"/>
         <rFont val="標楷體"/>
         <family val="4"/>
         <charset val="136"/>
       </rPr>
-      <t>增加人力資源的相關欄位</t>
+      <t>點選日期後同時出現當天日期、所需人力數量、已達數量。</t>
     </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="標楷體"/>
-        <family val="4"/>
-        <charset val="136"/>
-      </rPr>
-      <t>增加人力資源相關頁面</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>以月曆的方式呈現，點選日期後輸入供應人力，按下建立後即可針對該日期提供人力，該日期底色會改變</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>其他細部功能</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>清單的欄位資料不完整，"建立"按鈕的實現</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>清單的欄位資料不完整，"提出需求"按鈕的實現</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>以月曆的方式呈現，可點選日期，並且可勾選特定日期，當勾選的日期有提供者異動時會收到通知，點選日期後出現清單可針對不同的提供者，提出人力需求</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>"提出人力需求"按鈕的實現</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>可針對曾經供給過的對象進行評分</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>需求紀錄/評分供給者</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>評分模組的實現</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>供給清單</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人力資源倉庫</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>人力需求頁面</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小區塊顯示收到的通知內容，為系統通知。
+顯示供給方最新供給資料。</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>小區塊顯示收到的通知內容，為系統通知。
+顯示需求方最新需求資料，欄位：物品名稱、最近一次需求時間、頻率、每次平均需求量、緊急程度(以顏色方式區分)</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>簡單敘述產品的功能，並解說可以解決哪種情境的問題</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -325,7 +358,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -391,14 +424,6 @@
       <family val="4"/>
       <charset val="136"/>
     </font>
-    <font>
-      <strike/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="標楷體"/>
-      <family val="4"/>
-      <charset val="136"/>
-    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -420,7 +445,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -443,6 +468,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -453,11 +502,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -479,9 +525,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -518,17 +561,71 @@
     <xf numFmtId="9" fontId="6" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -836,418 +933,821 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="35" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.625" style="3" customWidth="1"/>
-    <col min="5" max="5" width="26.125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="32.125" style="3" customWidth="1"/>
-    <col min="7" max="7" width="39.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="B1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="G1" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="32">
+        <v>0.9</v>
+      </c>
+      <c r="E2" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="25"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24"/>
+      <c r="G3" s="23"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="25"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="G4" s="23"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="25"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="25"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="D8" s="25"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="39" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="27">
+        <v>0.7</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="40"/>
+      <c r="B10" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="27"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="23"/>
+    </row>
+    <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A11" s="40"/>
+      <c r="B11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" s="16"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A12" s="40"/>
+      <c r="B12" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C12" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="D12" s="31"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A13" s="37" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D13" s="27">
+        <v>0.95</v>
+      </c>
+      <c r="E13" s="24"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="38"/>
+      <c r="B14" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="23" t="s">
+        <v>69</v>
+      </c>
+      <c r="G14" s="4"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="38"/>
+      <c r="B15" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="G15" s="4"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="38"/>
+      <c r="B16" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="27"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="G16" s="23"/>
+    </row>
+    <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="66" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="28" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="27">
+        <v>0.95</v>
+      </c>
+      <c r="E18" s="30"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="23"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="34"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A13:A18"/>
+    <mergeCell ref="A9:A12"/>
+  </mergeCells>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A30" sqref="A30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="26.125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="32.125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="39.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="G1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" s="36"/>
+      <c r="B3" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="12"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="36"/>
+      <c r="B4" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="36"/>
+      <c r="B5" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="36"/>
+      <c r="B7" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="36"/>
+      <c r="B8" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="41" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="41"/>
+      <c r="B10" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D10" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A11" s="41"/>
+      <c r="B11" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E11" s="16" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="7">
-        <v>0.2</v>
-      </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="5"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="13" t="s">
+      <c r="F11" s="16"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A12" s="41"/>
+      <c r="B12" s="12" t="s">
+        <v>65</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0.95</v>
+      </c>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="12" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="36" t="s">
+        <v>6</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="E13" s="11"/>
+      <c r="F13" s="18"/>
+      <c r="G13" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="36"/>
+      <c r="B15" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D15" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="36"/>
+      <c r="B16" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D16" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="12" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A17" s="36"/>
+      <c r="B17" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="16"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="36"/>
+      <c r="B18" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D18" s="10">
+        <v>0.95</v>
+      </c>
+      <c r="E18" s="9"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="36" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="16"/>
+      <c r="D19" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="16"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="36"/>
+      <c r="B20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" s="16"/>
+      <c r="D20" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F20" s="16"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.25">
+      <c r="A21" s="36"/>
+      <c r="B21" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21" s="16"/>
+      <c r="D21" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F21" s="16"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="36"/>
+      <c r="B22" s="12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="19">
+        <v>0.95</v>
+      </c>
+      <c r="E22" s="11"/>
+      <c r="F22" s="11"/>
+      <c r="G22" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D23" s="7"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D3" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="E3" s="13"/>
-      <c r="F3" s="13"/>
-      <c r="G3" s="14"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="14" t="s">
-        <v>22</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="E4" s="13"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="14" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D5" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C9" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="23"/>
-      <c r="B10" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D10" s="12">
-        <v>0.95</v>
-      </c>
-      <c r="E10" s="13"/>
-      <c r="F10" s="13"/>
-      <c r="G10" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A11" s="23"/>
-      <c r="B11" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="18"/>
-      <c r="D11" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="F11" s="18"/>
-      <c r="G11" s="17"/>
-    </row>
-    <row r="12" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A12" s="23"/>
-      <c r="B12" s="14" t="s">
-        <v>68</v>
-      </c>
-      <c r="C12" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D12" s="24">
-        <v>0.95</v>
-      </c>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="14" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="D13" s="15">
-        <v>0.95</v>
-      </c>
-      <c r="E13" s="13"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="13" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" s="12">
-        <v>0.95</v>
-      </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="14" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15" s="12">
-        <v>0.95</v>
-      </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-      <c r="G15" s="14" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="14" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>64</v>
-      </c>
-      <c r="D16" s="12">
-        <v>0.95</v>
-      </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="14" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="D17" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="F17" s="18"/>
-      <c r="G17" s="17"/>
-    </row>
-    <row r="18" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="22"/>
-      <c r="B18" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="C18" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="D18" s="12">
-        <v>0.95</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="14" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="22" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="C19" s="18"/>
-      <c r="D19" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>14</v>
-      </c>
-      <c r="F19" s="18"/>
-      <c r="G19" s="17"/>
-    </row>
-    <row r="20" spans="1:7" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C20" s="18"/>
-      <c r="D20" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F20" s="18"/>
-      <c r="G20" s="17"/>
-    </row>
-    <row r="21" spans="1:7" ht="33" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="F21" s="18"/>
-      <c r="G21" s="17"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C22" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D22" s="21">
-        <v>0.95</v>
-      </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
-      <c r="G22" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D23" s="8"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="C25" s="1"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>56</v>
       </c>
     </row>
   </sheetData>
@@ -1264,33 +1764,105 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="B10" sqref="B9:B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="47.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.875" customWidth="1"/>
+    <col min="3" max="3" width="42.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="C1" s="23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="23" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>42</v>
-      </c>
+    <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A3" s="23" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="22"/>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="35"/>
+      <c r="B5" s="30"/>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="22"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="22"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="22"/>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="22"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="22"/>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="22"/>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="22"/>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="22"/>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="22"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="22"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="22"/>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22"/>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22"/>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
